--- a/Teszt.xlsx
+++ b/Teszt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cfeladatok\Telefon Szolgáltatás\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorys\CellularServiceV4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,12 +23,345 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Érvényes bejelentkezés esetei: "Orbán Iktor" alkalmazott,"Boss Elek" főnök</t>
+  </si>
+  <si>
+    <t>Érvénytelen bejelentkezési kísérlet esete: "orbán Iktor","Csákány Péter","6","-1.&lt;đ#", Hibaüzenet:" Sikertelen bejelentkezés! Adja meg a nevét:"</t>
+  </si>
+  <si>
+    <t>A főnöki futás esetén a lehetőségek:</t>
+  </si>
+  <si>
+    <t>Az alkalmazotti futás lehetőségei:</t>
+  </si>
+  <si>
+    <t>"beok" A beosztottak listájának lekérdezése. Kizárólag azzal a parancsal működik. Egébként érvénytelen válasz esetén újra felkínálja a lehetőségeket.</t>
+  </si>
+  <si>
+    <t>"exit" parancs leállítja a programot, az alkalmazottak is tudják használni. Kizárólag azzal a parancsal működik. Egébként érvénytelen válasz esetén újra felkínálja a lehetőségeket. Érvénytelen válaszok Pl: "-exit- ","&lt;122&gt;exit", "exit{hth77logout}", "exitt"</t>
+  </si>
+  <si>
+    <t>"logout" A bejelentkezés inputjához dob vissa. Ez a lehetőséget az alkalmazott is igénybe veheti. Kizárólag azzal a parancsal működik. Egébként érvénytelen válasz esetén újra felkínálja a lehetőségeket. Érvénytelen válaszok Pl: "-logout- ","&lt;122&gt;logout", "logout{hth77exit}","logoutt"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"uu": Új ügyfél létrehozása a következő inputokat kéri: ügyfél azonosítója: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiba:negatív és már meglévő azonosítót is elfogad. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ügyfél neve: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiba: az input mező nincs ellenőrizve, ezért bármi megadható</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ügyfél telefonszáma: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiba: az input mező nincs ellenőrizve, ezért bármi megadható, akár meglévő is</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ügyfél címe: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiba: az input mező nincs ellenőrizve, ezért bármi megadható.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"um" Ügyfél módosítása: Először meg kell adni az ügyfél azonosítóját: Csak meglévő azonosítótt fogad el ("</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"), mást nem:"-1","2143234234242424" következőnek az új címet kéri </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiba: az input mező nincs ellenőrizve, ezért bármi megadható.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ut" Ügyfél törlése: Kéri az ügyfél azonosítóját("</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"), kizárólag meglévőt fogad el, mást nem:"-1","434433","tht","logout".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"sz" számla létrehozása először egy számla azonosítót kér:  csak számot fogad el, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hiba A már meglévő számla azonosítót, valamint negatív számot is elfogad. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Következőnek az ügyfél azonosítóját kéri, kizárólag meglévő azonosítót fogad el és külön hivaüzenetet dob formátum és nemtalált ügyfél azonosítóra. Végül a számla összege mező: Csak int méretű számot lehet megadni, minuszt is. Minden más esetben hibaüzenetet dob. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"st" számla sztornózása egyedül a számla azonosítóját kell megadni:  Kizárólag meglévőt fogad el, külön hibát dob formátum és nem található azonosítóra. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiba: többször végre lehet hajtani a stornózást már stornózott számlán.</t>
+    </r>
+  </si>
+  <si>
+    <t>"tl" A parancs az összes számlát lekérdezi, amin az összeg befizetése nem történt meg.</t>
+  </si>
+  <si>
+    <t>"ul" Az összes ügfelet lekérdezi.</t>
+  </si>
+  <si>
+    <t>"sl" Az összes számlát lekérdezi.</t>
+  </si>
+  <si>
+    <t>A sztornó számla "st" funkciót kivéve a többi már meglévő adaton történő módosítást nem másolja vagy menti, hanem egyből felülírja, ezért nem lehet látni mi volt a módosítás előtt.</t>
+  </si>
+  <si>
+    <t>Teszt</t>
+  </si>
+  <si>
+    <t>Az adatok statikusak, a program bezárását követően minden visszaáll alapállapotba.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -52,13 +385,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Magyarázó szöveg" xfId="1" builtinId="53"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,14 +690,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A8" sqref="A8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="15" max="15" width="148.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:O7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>